--- a/data/1955 rosters  formatted.xlsx
+++ b/data/1955 rosters  formatted.xlsx
@@ -1292,7 +1292,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="n">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="n">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD4" s="4" t="n">
         <v>0</v>
@@ -1574,7 +1574,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="n">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="n">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="I8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J8" s="4" t="inlineStr">
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="U8" s="4" t="n">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AD8" s="4" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="n">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="I10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">S84 </t>
+          <t xml:space="preserve">S95 </t>
         </is>
       </c>
       <c r="J10" s="4" t="inlineStr">
@@ -2012,39 +2012,39 @@
         <v>0</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="V10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="4" t="n">
         <v>2</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="I15" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">85 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J15" s="4" t="inlineStr">
@@ -2479,42 +2479,42 @@
         <v>0</v>
       </c>
       <c r="T15" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U15" s="4" t="n">
         <v>0</v>
       </c>
       <c r="V15" s="4" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="W15" s="4" t="n">
         <v>0</v>
       </c>
       <c r="X15" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Z15" s="4" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="AA15" s="4" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="AB15" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AC15" s="4" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AD15" s="4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="I16" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">S84 </t>
+          <t xml:space="preserve">S85 </t>
         </is>
       </c>
       <c r="J16" s="4" t="inlineStr">
@@ -2576,10 +2576,10 @@
         <v>0</v>
       </c>
       <c r="U16" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="V16" s="4" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="W16" s="4" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="4" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="AD16" s="4" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="n">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">S84 </t>
+          <t xml:space="preserve">S95 </t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="V19" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="W19" s="4" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AD19" s="4" t="n">
         <v>0</v>
@@ -2890,7 +2890,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">85 </t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
@@ -3243,30 +3243,30 @@
         <v>0</v>
       </c>
       <c r="X23" s="4" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Y23" s="4" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="Z23" s="4" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="AA23" s="4" t="n">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="AB23" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AC23" s="4" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AD23" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="I24" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
@@ -3337,25 +3337,25 @@
         <v>0</v>
       </c>
       <c r="X24" s="4" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Y24" s="4" t="n">
         <v>3</v>
       </c>
       <c r="Z24" s="4" t="n">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="AA24" s="4" t="n">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AB24" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AC24" s="4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AD24" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="I25" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">94 </t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
@@ -3431,25 +3431,25 @@
         <v>0</v>
       </c>
       <c r="X25" s="4" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y25" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AA25" s="4" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AB25" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AC25" s="4" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="AD25" s="4" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="I27" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">S84 </t>
+          <t xml:space="preserve">S85 </t>
         </is>
       </c>
       <c r="J27" s="4" t="inlineStr">
@@ -3619,30 +3619,30 @@
         <v>0</v>
       </c>
       <c r="X27" s="4" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Y27" s="4" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="Z27" s="4" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA27" s="4" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AB27" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AC27" s="4" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="AD27" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="I28" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">S84 </t>
+          <t xml:space="preserve">S95 </t>
         </is>
       </c>
       <c r="J28" s="4" t="inlineStr">
@@ -3713,30 +3713,30 @@
         <v>0</v>
       </c>
       <c r="X28" s="4" t="n">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="Y28" s="4" t="n">
         <v>4</v>
       </c>
       <c r="Z28" s="4" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="AA28" s="4" t="n">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="AB28" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AC28" s="4" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="AD28" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="I31" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">S84 </t>
+          <t xml:space="preserve">S95 </t>
         </is>
       </c>
       <c r="J31" s="4" t="inlineStr">
@@ -3995,30 +3995,30 @@
         <v>0</v>
       </c>
       <c r="X31" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Y31" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="4" t="n">
         <v>5</v>
       </c>
       <c r="AA31" s="4" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AB31" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AC31" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AD31" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
       </c>
       <c r="I32" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">94 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J32" s="4" t="inlineStr">
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U32" s="4" t="n">
         <v>0</v>
@@ -4089,30 +4089,30 @@
         <v>0</v>
       </c>
       <c r="X32" s="4" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Z32" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="AA32" s="4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="4" t="n">
-        <v>33</v>
-      </c>
       <c r="AD32" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="R35" s="4" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="S35" s="4" t="n">
         <v>0</v>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="n">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="n">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         </is>
       </c>
       <c r="R39" s="4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S39" s="4" t="n">
         <v>0</v>
@@ -4866,7 +4866,7 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="n">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="I40" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J40" s="4" t="inlineStr">
@@ -4935,7 +4935,7 @@
         </is>
       </c>
       <c r="R40" s="4" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="S40" s="4" t="n">
         <v>0</v>
@@ -4976,7 +4976,7 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="n">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="n">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         </is>
       </c>
       <c r="R42" s="4" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="S42" s="4" t="n">
         <v>0</v>
@@ -5196,7 +5196,7 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="n">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         </is>
       </c>
       <c r="R44" s="4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S44" s="4" t="n">
         <v>0</v>
@@ -5416,7 +5416,7 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="n">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
       </c>
       <c r="I45" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">94 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J45" s="4" t="inlineStr">
@@ -5485,7 +5485,7 @@
         </is>
       </c>
       <c r="R45" s="4" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="S45" s="4" t="n">
         <v>0</v>
@@ -5518,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD45" s="4" t="n">
         <v>1</v>
@@ -5557,7 +5557,7 @@
       </c>
       <c r="I46" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J46" s="4" t="inlineStr">
@@ -5595,7 +5595,7 @@
         </is>
       </c>
       <c r="R46" s="4" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="S46" s="4" t="n">
         <v>0</v>
@@ -5636,7 +5636,7 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="n">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
       </c>
       <c r="I47" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">94 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J47" s="4" t="inlineStr">
@@ -5705,7 +5705,7 @@
         </is>
       </c>
       <c r="R47" s="4" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="S47" s="4" t="n">
         <v>0</v>
@@ -5777,7 +5777,7 @@
       </c>
       <c r="I48" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">S84 </t>
+          <t xml:space="preserve">S94 </t>
         </is>
       </c>
       <c r="J48" s="4" t="inlineStr">
@@ -5815,7 +5815,7 @@
         </is>
       </c>
       <c r="R48" s="4" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="S48" s="4" t="n">
         <v>0</v>
@@ -5856,7 +5856,7 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="n">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="I50" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">S84 </t>
+          <t xml:space="preserve">S95 </t>
         </is>
       </c>
       <c r="J50" s="4" t="inlineStr">
@@ -6035,7 +6035,7 @@
         </is>
       </c>
       <c r="R50" s="4" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="S50" s="4" t="n">
         <v>0</v>
@@ -6076,7 +6076,7 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="n">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
       </c>
       <c r="I51" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">S84 </t>
+          <t xml:space="preserve">S95 </t>
         </is>
       </c>
       <c r="J51" s="4" t="inlineStr">
@@ -6145,7 +6145,7 @@
         </is>
       </c>
       <c r="R51" s="4" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="S51" s="4" t="n">
         <v>0</v>
@@ -6296,7 +6296,7 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="n">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
     </row>
     <row r="55">
       <c r="A55" s="4" t="n">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="n">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>0</v>
@@ -7132,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD4" s="4" t="n">
         <v>0</v>
@@ -7140,7 +7140,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="n">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="n">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="n">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="n">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="n">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="n">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="n">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="n">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
@@ -11327,13 +11327,13 @@
         <v>0</v>
       </c>
       <c r="V12" s="4" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="W12" s="4" t="n">
         <v>0</v>
       </c>
       <c r="X12" s="4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Y12" s="4" t="n">
         <v>0</v>
@@ -11342,13 +11342,13 @@
         <v>4</v>
       </c>
       <c r="AA12" s="4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB12" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AC12" s="4" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AD12" s="4" t="n">
         <v>0</v>
@@ -11638,7 +11638,7 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="n">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
@@ -12229,7 +12229,7 @@
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
@@ -12273,30 +12273,30 @@
         <v>0</v>
       </c>
       <c r="X22" s="4" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="4" t="n">
         <v>2</v>
       </c>
       <c r="Z22" s="4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AA22" s="4" t="n">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="AB22" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AC22" s="4" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="AD22" s="4" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
@@ -12516,7 +12516,7 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         </is>
       </c>
       <c r="R32" s="4" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="S32" s="4" t="n">
         <v>0</v>
@@ -13616,7 +13616,7 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
@@ -14036,7 +14036,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="n">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="n">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="n">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="n">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="n">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
@@ -15164,7 +15164,7 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
@@ -15728,7 +15728,7 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
@@ -16010,7 +16010,7 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
       </c>
       <c r="I25" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
@@ -16087,16 +16087,16 @@
         <v>0</v>
       </c>
       <c r="Z25" s="4" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="4" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AC25" s="4" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="AD25" s="4" t="n">
         <v>0</v>
@@ -16104,7 +16104,7 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
@@ -16638,7 +16638,7 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
@@ -17219,7 +17219,7 @@
       </c>
       <c r="I36" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">94 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J36" s="4" t="inlineStr">
@@ -17257,7 +17257,7 @@
         </is>
       </c>
       <c r="R36" s="4" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S36" s="4" t="n">
         <v>0</v>
@@ -17298,7 +17298,7 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="n">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
       </c>
       <c r="I39" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">S84 </t>
+          <t xml:space="preserve">S95 </t>
         </is>
       </c>
       <c r="J39" s="4" t="inlineStr">
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="R39" s="4" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="S39" s="4" t="n">
         <v>0</v>
@@ -17628,7 +17628,7 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="n">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
       </c>
       <c r="I40" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">85 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J40" s="4" t="inlineStr">
@@ -17697,7 +17697,7 @@
         </is>
       </c>
       <c r="R40" s="4" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="S40" s="4" t="n">
         <v>0</v>
@@ -17738,7 +17738,7 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="n">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
@@ -17769,7 +17769,7 @@
       </c>
       <c r="I41" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">94 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J41" s="4" t="inlineStr">
@@ -17807,7 +17807,7 @@
         </is>
       </c>
       <c r="R41" s="4" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="S41" s="4" t="n">
         <v>0</v>
@@ -17879,7 +17879,7 @@
       </c>
       <c r="I42" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">S84 </t>
+          <t xml:space="preserve">S95 </t>
         </is>
       </c>
       <c r="J42" s="4" t="inlineStr">
@@ -17917,7 +17917,7 @@
         </is>
       </c>
       <c r="R42" s="4" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="S42" s="4" t="n">
         <v>0</v>
@@ -18174,7 +18174,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="n">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="n">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>0</v>
@@ -18354,7 +18354,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD4" s="4" t="n">
         <v>0</v>
@@ -18418,7 +18418,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>0</v>
@@ -18448,7 +18448,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>0</v>
@@ -18456,7 +18456,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="n">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
@@ -18644,7 +18644,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="n">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
@@ -18671,7 +18671,7 @@
       </c>
       <c r="I8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J8" s="4" t="inlineStr">
@@ -18703,7 +18703,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="U8" s="4" t="n">
         <v>0</v>
@@ -18730,15 +18730,15 @@
         <v>0</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
       </c>
       <c r="I9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J9" s="4" t="inlineStr">
@@ -18797,7 +18797,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="U9" s="4" t="n">
         <v>0</v>
@@ -18824,7 +18824,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="AD9" s="4" t="n">
         <v>0</v>
@@ -18832,7 +18832,7 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="n">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="n">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="4" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="Y19" s="4" t="n">
         <v>0</v>
@@ -19758,13 +19758,13 @@
         <v>79</v>
       </c>
       <c r="AA19" s="4" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AB19" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AC19" s="4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD19" s="4" t="n">
         <v>0</v>
@@ -19843,7 +19843,7 @@
         <v>0</v>
       </c>
       <c r="X20" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="4" t="n">
         <v>4</v>
@@ -19852,21 +19852,21 @@
         <v>54</v>
       </c>
       <c r="AA20" s="4" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AB20" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AC20" s="4" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AD20" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
@@ -19987,7 +19987,7 @@
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">S84 </t>
+          <t xml:space="preserve">S95 </t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
@@ -20019,7 +20019,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="4" t="n">
         <v>0</v>
@@ -20031,7 +20031,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="4" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="Y22" s="4" t="n">
         <v>4</v>
@@ -20040,16 +20040,16 @@
         <v>8</v>
       </c>
       <c r="AA22" s="4" t="n">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="AB22" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AC22" s="4" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AD22" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -20332,7 +20332,7 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
@@ -21132,7 +21132,7 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
@@ -21462,7 +21462,7 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="n">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
@@ -21572,7 +21572,7 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="n">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         </is>
       </c>
       <c r="R39" s="4" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="S39" s="4" t="n">
         <v>0</v>
@@ -21792,7 +21792,7 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="n">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
       </c>
       <c r="I41" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">94 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J41" s="4" t="inlineStr">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="R41" s="4" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="S41" s="4" t="n">
         <v>0</v>
@@ -22007,7 +22007,7 @@
         <v>1</v>
       </c>
       <c r="AD41" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -22122,7 +22122,7 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="n">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="n">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
       </c>
       <c r="I44" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J44" s="4" t="inlineStr">
@@ -22301,7 +22301,7 @@
         </is>
       </c>
       <c r="R44" s="4" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="S44" s="4" t="n">
         <v>0</v>
@@ -22342,7 +22342,7 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="n">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
@@ -22778,7 +22778,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="n">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
@@ -22966,7 +22966,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="n">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
@@ -23060,7 +23060,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="n">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
@@ -23154,7 +23154,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="n">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="n">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
@@ -23342,7 +23342,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
@@ -23436,7 +23436,7 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="n">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
       </c>
       <c r="I14" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">S85 </t>
+          <t xml:space="preserve">S95 </t>
         </is>
       </c>
       <c r="J14" s="4" t="inlineStr">
@@ -23877,28 +23877,28 @@
         <v>0</v>
       </c>
       <c r="V14" s="4" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="W14" s="4" t="n">
         <v>0</v>
       </c>
       <c r="X14" s="4" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="Y14" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Z14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="AA14" s="4" t="n">
-        <v>21</v>
-      </c>
       <c r="AB14" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AC14" s="4" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="AD14" s="4" t="n">
         <v>0</v>
@@ -24000,7 +24000,7 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
@@ -24282,7 +24282,7 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
@@ -24544,13 +24544,13 @@
         <v>6</v>
       </c>
       <c r="Y21" s="4" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="Z21" s="4" t="n">
         <v>4</v>
       </c>
       <c r="AA21" s="4" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="AB21" s="4" t="n">
         <v>0</v>
@@ -24564,7 +24564,7 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
@@ -24658,7 +24658,7 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
@@ -25050,7 +25050,7 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
@@ -26150,7 +26150,7 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="n">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
@@ -26590,7 +26590,7 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="n">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="n">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="n">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="n">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
@@ -27434,7 +27434,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="n">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>0</v>
@@ -27520,7 +27520,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>0</v>
@@ -27528,7 +27528,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="n">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
@@ -27622,7 +27622,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="n">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
@@ -27810,7 +27810,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
@@ -28468,7 +28468,7 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
@@ -28562,7 +28562,7 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
@@ -28656,7 +28656,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="n">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
@@ -28938,7 +28938,7 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
@@ -29032,7 +29032,7 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
@@ -29456,7 +29456,7 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
@@ -29676,7 +29676,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
@@ -29786,7 +29786,7 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
@@ -30006,7 +30006,7 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
@@ -30116,7 +30116,7 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
@@ -30336,7 +30336,7 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
@@ -30446,7 +30446,7 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
@@ -30556,7 +30556,7 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
@@ -30666,7 +30666,7 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="n">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
@@ -30917,7 +30917,7 @@
       </c>
       <c r="I39" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J39" s="4" t="inlineStr">
@@ -30955,7 +30955,7 @@
         </is>
       </c>
       <c r="R39" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S39" s="4" t="n">
         <v>0</v>
@@ -30996,7 +30996,7 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="n">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="n">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
@@ -31175,7 +31175,7 @@
         </is>
       </c>
       <c r="R41" s="4" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="S41" s="4" t="n">
         <v>0</v>
@@ -31216,7 +31216,7 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="n">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
@@ -31594,49 +31594,25 @@
           <t>C</t>
         </is>
       </c>
-      <c r="R3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>113</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R3" s="4" t="n"/>
+      <c r="S3" s="4" t="n"/>
+      <c r="T3" s="4" t="n"/>
+      <c r="U3" s="4" t="n"/>
+      <c r="V3" s="4" t="n"/>
+      <c r="W3" s="4" t="n"/>
+      <c r="X3" s="4" t="n"/>
+      <c r="Y3" s="4" t="n"/>
+      <c r="Z3" s="4" t="n"/>
+      <c r="AA3" s="4" t="n"/>
       <c r="AB3" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC3" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC3" s="4" t="n"/>
+      <c r="AD3" s="4" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="n">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
@@ -31688,45 +31664,21 @@
           <t>C</t>
         </is>
       </c>
-      <c r="R4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>93</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R4" s="4" t="n"/>
+      <c r="S4" s="4" t="n"/>
+      <c r="T4" s="4" t="n"/>
+      <c r="U4" s="4" t="n"/>
+      <c r="V4" s="4" t="n"/>
+      <c r="W4" s="4" t="n"/>
+      <c r="X4" s="4" t="n"/>
+      <c r="Y4" s="4" t="n"/>
+      <c r="Z4" s="4" t="n"/>
+      <c r="AA4" s="4" t="n"/>
       <c r="AB4" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC4" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC4" s="4" t="n"/>
+      <c r="AD4" s="4" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="n">
@@ -31782,49 +31734,25 @@
           <t>C</t>
         </is>
       </c>
-      <c r="R5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>84</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R5" s="4" t="n"/>
+      <c r="S5" s="4" t="n"/>
+      <c r="T5" s="4" t="n"/>
+      <c r="U5" s="4" t="n"/>
+      <c r="V5" s="4" t="n"/>
+      <c r="W5" s="4" t="n"/>
+      <c r="X5" s="4" t="n"/>
+      <c r="Y5" s="4" t="n"/>
+      <c r="Z5" s="4" t="n"/>
+      <c r="AA5" s="4" t="n"/>
       <c r="AB5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC5" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC5" s="4" t="n"/>
+      <c r="AD5" s="4" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
@@ -31876,49 +31804,25 @@
           <t>C</t>
         </is>
       </c>
-      <c r="R6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R6" s="4" t="n"/>
+      <c r="S6" s="4" t="n"/>
+      <c r="T6" s="4" t="n"/>
+      <c r="U6" s="4" t="n"/>
+      <c r="V6" s="4" t="n"/>
+      <c r="W6" s="4" t="n"/>
+      <c r="X6" s="4" t="n"/>
+      <c r="Y6" s="4" t="n"/>
+      <c r="Z6" s="4" t="n"/>
+      <c r="AA6" s="4" t="n"/>
       <c r="AB6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC6" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC6" s="4" t="n"/>
+      <c r="AD6" s="4" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="n">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
@@ -31970,49 +31874,25 @@
           <t>C</t>
         </is>
       </c>
-      <c r="R7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R7" s="4" t="n"/>
+      <c r="S7" s="4" t="n"/>
+      <c r="T7" s="4" t="n"/>
+      <c r="U7" s="4" t="n"/>
+      <c r="V7" s="4" t="n"/>
+      <c r="W7" s="4" t="n"/>
+      <c r="X7" s="4" t="n"/>
+      <c r="Y7" s="4" t="n"/>
+      <c r="Z7" s="4" t="n"/>
+      <c r="AA7" s="4" t="n"/>
       <c r="AB7" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC7" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC7" s="4" t="n"/>
+      <c r="AD7" s="4" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="n">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
@@ -32064,45 +31944,21 @@
           <t>1B</t>
         </is>
       </c>
-      <c r="R8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>127</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R8" s="4" t="n"/>
+      <c r="S8" s="4" t="n"/>
+      <c r="T8" s="4" t="n"/>
+      <c r="U8" s="4" t="n"/>
+      <c r="V8" s="4" t="n"/>
+      <c r="W8" s="4" t="n"/>
+      <c r="X8" s="4" t="n"/>
+      <c r="Y8" s="4" t="n"/>
+      <c r="Z8" s="4" t="n"/>
+      <c r="AA8" s="4" t="n"/>
       <c r="AB8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC8" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC8" s="4" t="n"/>
+      <c r="AD8" s="4" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
@@ -32158,49 +32014,25 @@
           <t>1B</t>
         </is>
       </c>
-      <c r="R9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>95</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R9" s="4" t="n"/>
+      <c r="S9" s="4" t="n"/>
+      <c r="T9" s="4" t="n"/>
+      <c r="U9" s="4" t="n"/>
+      <c r="V9" s="4" t="n"/>
+      <c r="W9" s="4" t="n"/>
+      <c r="X9" s="4" t="n"/>
+      <c r="Y9" s="4" t="n"/>
+      <c r="Z9" s="4" t="n"/>
+      <c r="AA9" s="4" t="n"/>
       <c r="AB9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC9" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC9" s="4" t="n"/>
+      <c r="AD9" s="4" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="n">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
@@ -32252,49 +32084,25 @@
           <t>1B</t>
         </is>
       </c>
-      <c r="R10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>57</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R10" s="4" t="n"/>
+      <c r="S10" s="4" t="n"/>
+      <c r="T10" s="4" t="n"/>
+      <c r="U10" s="4" t="n"/>
+      <c r="V10" s="4" t="n"/>
+      <c r="W10" s="4" t="n"/>
+      <c r="X10" s="4" t="n"/>
+      <c r="Y10" s="4" t="n"/>
+      <c r="Z10" s="4" t="n"/>
+      <c r="AA10" s="4" t="n"/>
       <c r="AB10" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC10" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC10" s="4" t="n"/>
+      <c r="AD10" s="4" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
@@ -32346,49 +32154,25 @@
           <t>2B</t>
         </is>
       </c>
-      <c r="R11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>69</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R11" s="4" t="n"/>
+      <c r="S11" s="4" t="n"/>
+      <c r="T11" s="4" t="n"/>
+      <c r="U11" s="4" t="n"/>
+      <c r="V11" s="4" t="n"/>
+      <c r="W11" s="4" t="n"/>
+      <c r="X11" s="4" t="n"/>
+      <c r="Y11" s="4" t="n"/>
+      <c r="Z11" s="4" t="n"/>
+      <c r="AA11" s="4" t="n"/>
       <c r="AB11" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC11" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>3</v>
-      </c>
+      <c r="AC11" s="4" t="n"/>
+      <c r="AD11" s="4" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="n">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
@@ -32415,7 +32199,7 @@
       </c>
       <c r="I12" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">85 </t>
+          <t xml:space="preserve">84 </t>
         </is>
       </c>
       <c r="J12" s="4" t="inlineStr">
@@ -32440,45 +32224,21 @@
           <t>3B</t>
         </is>
       </c>
-      <c r="R12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="U12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" s="4" t="n">
-        <v>56</v>
-      </c>
-      <c r="W12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA12" s="4" t="n">
-        <v>34</v>
-      </c>
+      <c r="R12" s="4" t="n"/>
+      <c r="S12" s="4" t="n"/>
+      <c r="T12" s="4" t="n"/>
+      <c r="U12" s="4" t="n"/>
+      <c r="V12" s="4" t="n"/>
+      <c r="W12" s="4" t="n"/>
+      <c r="X12" s="4" t="n"/>
+      <c r="Y12" s="4" t="n"/>
+      <c r="Z12" s="4" t="n"/>
+      <c r="AA12" s="4" t="n"/>
       <c r="AB12" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC12" s="4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AD12" s="4" t="n">
-        <v>9</v>
-      </c>
+      <c r="AC12" s="4" t="n"/>
+      <c r="AD12" s="4" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="n">
@@ -32534,45 +32294,21 @@
           <t>3B</t>
         </is>
       </c>
-      <c r="R13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="V13" s="4" t="n">
-        <v>51</v>
-      </c>
-      <c r="W13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R13" s="4" t="n"/>
+      <c r="S13" s="4" t="n"/>
+      <c r="T13" s="4" t="n"/>
+      <c r="U13" s="4" t="n"/>
+      <c r="V13" s="4" t="n"/>
+      <c r="W13" s="4" t="n"/>
+      <c r="X13" s="4" t="n"/>
+      <c r="Y13" s="4" t="n"/>
+      <c r="Z13" s="4" t="n"/>
+      <c r="AA13" s="4" t="n"/>
       <c r="AB13" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC13" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD13" s="4" t="n">
-        <v>17</v>
-      </c>
+      <c r="AC13" s="4" t="n"/>
+      <c r="AD13" s="4" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
@@ -32603,7 +32339,7 @@
       </c>
       <c r="I14" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">S85 </t>
+          <t xml:space="preserve">S84 </t>
         </is>
       </c>
       <c r="J14" s="4" t="inlineStr">
@@ -32628,49 +32364,25 @@
           <t>3B</t>
         </is>
       </c>
-      <c r="R14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" s="4" t="n">
-        <v>39</v>
-      </c>
-      <c r="W14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA14" s="4" t="n">
-        <v>21</v>
-      </c>
+      <c r="R14" s="4" t="n"/>
+      <c r="S14" s="4" t="n"/>
+      <c r="T14" s="4" t="n"/>
+      <c r="U14" s="4" t="n"/>
+      <c r="V14" s="4" t="n"/>
+      <c r="W14" s="4" t="n"/>
+      <c r="X14" s="4" t="n"/>
+      <c r="Y14" s="4" t="n"/>
+      <c r="Z14" s="4" t="n"/>
+      <c r="AA14" s="4" t="n"/>
       <c r="AB14" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC14" s="4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD14" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC14" s="4" t="n"/>
+      <c r="AD14" s="4" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
@@ -32722,49 +32434,25 @@
           <t>3B</t>
         </is>
       </c>
-      <c r="R15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="V15" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="W15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R15" s="4" t="n"/>
+      <c r="S15" s="4" t="n"/>
+      <c r="T15" s="4" t="n"/>
+      <c r="U15" s="4" t="n"/>
+      <c r="V15" s="4" t="n"/>
+      <c r="W15" s="4" t="n"/>
+      <c r="X15" s="4" t="n"/>
+      <c r="Y15" s="4" t="n"/>
+      <c r="Z15" s="4" t="n"/>
+      <c r="AA15" s="4" t="n"/>
       <c r="AB15" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC15" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AD15" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC15" s="4" t="n"/>
+      <c r="AD15" s="4" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
@@ -32816,45 +32504,21 @@
           <t>3B</t>
         </is>
       </c>
-      <c r="R16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="W16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R16" s="4" t="n"/>
+      <c r="S16" s="4" t="n"/>
+      <c r="T16" s="4" t="n"/>
+      <c r="U16" s="4" t="n"/>
+      <c r="V16" s="4" t="n"/>
+      <c r="W16" s="4" t="n"/>
+      <c r="X16" s="4" t="n"/>
+      <c r="Y16" s="4" t="n"/>
+      <c r="Z16" s="4" t="n"/>
+      <c r="AA16" s="4" t="n"/>
       <c r="AB16" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC16" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD16" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC16" s="4" t="n"/>
+      <c r="AD16" s="4" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
@@ -32910,45 +32574,21 @@
           <t>SS</t>
         </is>
       </c>
-      <c r="R17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V17" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="W17" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="X17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R17" s="4" t="n"/>
+      <c r="S17" s="4" t="n"/>
+      <c r="T17" s="4" t="n"/>
+      <c r="U17" s="4" t="n"/>
+      <c r="V17" s="4" t="n"/>
+      <c r="W17" s="4" t="n"/>
+      <c r="X17" s="4" t="n"/>
+      <c r="Y17" s="4" t="n"/>
+      <c r="Z17" s="4" t="n"/>
+      <c r="AA17" s="4" t="n"/>
       <c r="AB17" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC17" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD17" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC17" s="4" t="n"/>
+      <c r="AD17" s="4" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="n">
@@ -32979,7 +32619,7 @@
       </c>
       <c r="I18" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">85 </t>
+          <t xml:space="preserve">84 </t>
         </is>
       </c>
       <c r="J18" s="4" t="inlineStr">
@@ -33004,49 +32644,25 @@
           <t>OF</t>
         </is>
       </c>
-      <c r="R18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="4" t="n">
-        <v>146</v>
-      </c>
-      <c r="Z18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="4" t="n">
-        <v>146</v>
-      </c>
+      <c r="R18" s="4" t="n"/>
+      <c r="S18" s="4" t="n"/>
+      <c r="T18" s="4" t="n"/>
+      <c r="U18" s="4" t="n"/>
+      <c r="V18" s="4" t="n"/>
+      <c r="W18" s="4" t="n"/>
+      <c r="X18" s="4" t="n"/>
+      <c r="Y18" s="4" t="n"/>
+      <c r="Z18" s="4" t="n"/>
+      <c r="AA18" s="4" t="n"/>
       <c r="AB18" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="4" t="n">
-        <v>4</v>
-      </c>
+      <c r="AC18" s="4" t="n"/>
+      <c r="AD18" s="4" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
@@ -33098,49 +32714,25 @@
           <t>OF</t>
         </is>
       </c>
-      <c r="R19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="W19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" s="4" t="n">
-        <v>48</v>
-      </c>
-      <c r="Y19" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z19" s="4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA19" s="4" t="n">
-        <v>116</v>
-      </c>
+      <c r="R19" s="4" t="n"/>
+      <c r="S19" s="4" t="n"/>
+      <c r="T19" s="4" t="n"/>
+      <c r="U19" s="4" t="n"/>
+      <c r="V19" s="4" t="n"/>
+      <c r="W19" s="4" t="n"/>
+      <c r="X19" s="4" t="n"/>
+      <c r="Y19" s="4" t="n"/>
+      <c r="Z19" s="4" t="n"/>
+      <c r="AA19" s="4" t="n"/>
       <c r="AB19" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC19" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD19" s="4" t="n">
-        <v>5</v>
-      </c>
+      <c r="AC19" s="4" t="n"/>
+      <c r="AD19" s="4" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
@@ -33192,49 +32784,25 @@
           <t>OF</t>
         </is>
       </c>
-      <c r="R20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" s="4" t="n">
-        <v>88</v>
-      </c>
-      <c r="Y20" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z20" s="4" t="n">
-        <v>43</v>
-      </c>
-      <c r="AA20" s="4" t="n">
-        <v>114</v>
-      </c>
+      <c r="R20" s="4" t="n"/>
+      <c r="S20" s="4" t="n"/>
+      <c r="T20" s="4" t="n"/>
+      <c r="U20" s="4" t="n"/>
+      <c r="V20" s="4" t="n"/>
+      <c r="W20" s="4" t="n"/>
+      <c r="X20" s="4" t="n"/>
+      <c r="Y20" s="4" t="n"/>
+      <c r="Z20" s="4" t="n"/>
+      <c r="AA20" s="4" t="n"/>
       <c r="AB20" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC20" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD20" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC20" s="4" t="n"/>
+      <c r="AD20" s="4" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
@@ -33286,49 +32854,25 @@
           <t>OF</t>
         </is>
       </c>
-      <c r="R21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y21" s="4" t="n">
-        <v>51</v>
-      </c>
-      <c r="Z21" s="4" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA21" s="4" t="n">
-        <v>103</v>
-      </c>
+      <c r="R21" s="4" t="n"/>
+      <c r="S21" s="4" t="n"/>
+      <c r="T21" s="4" t="n"/>
+      <c r="U21" s="4" t="n"/>
+      <c r="V21" s="4" t="n"/>
+      <c r="W21" s="4" t="n"/>
+      <c r="X21" s="4" t="n"/>
+      <c r="Y21" s="4" t="n"/>
+      <c r="Z21" s="4" t="n"/>
+      <c r="AA21" s="4" t="n"/>
       <c r="AB21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC21" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AD21" s="4" t="n">
-        <v>5</v>
-      </c>
+      <c r="AC21" s="4" t="n"/>
+      <c r="AD21" s="4" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
@@ -33380,49 +32924,25 @@
           <t>OF</t>
         </is>
       </c>
-      <c r="R22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="4" t="n">
-        <v>77</v>
-      </c>
-      <c r="AA22" s="4" t="n">
-        <v>77</v>
-      </c>
+      <c r="R22" s="4" t="n"/>
+      <c r="S22" s="4" t="n"/>
+      <c r="T22" s="4" t="n"/>
+      <c r="U22" s="4" t="n"/>
+      <c r="V22" s="4" t="n"/>
+      <c r="W22" s="4" t="n"/>
+      <c r="X22" s="4" t="n"/>
+      <c r="Y22" s="4" t="n"/>
+      <c r="Z22" s="4" t="n"/>
+      <c r="AA22" s="4" t="n"/>
       <c r="AB22" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC22" s="4" t="n">
-        <v>59</v>
-      </c>
-      <c r="AD22" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC22" s="4" t="n"/>
+      <c r="AD22" s="4" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
@@ -33449,7 +32969,7 @@
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">85 </t>
+          <t xml:space="preserve">84 </t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
@@ -33474,45 +32994,21 @@
           <t>OF</t>
         </is>
       </c>
-      <c r="R23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="U23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y23" s="4" t="n">
-        <v>91</v>
-      </c>
-      <c r="Z23" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA23" s="4" t="n">
-        <v>100</v>
-      </c>
+      <c r="R23" s="4" t="n"/>
+      <c r="S23" s="4" t="n"/>
+      <c r="T23" s="4" t="n"/>
+      <c r="U23" s="4" t="n"/>
+      <c r="V23" s="4" t="n"/>
+      <c r="W23" s="4" t="n"/>
+      <c r="X23" s="4" t="n"/>
+      <c r="Y23" s="4" t="n"/>
+      <c r="Z23" s="4" t="n"/>
+      <c r="AA23" s="4" t="n"/>
       <c r="AB23" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC23" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD23" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC23" s="4" t="n"/>
+      <c r="AD23" s="4" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
@@ -33543,7 +33039,7 @@
       </c>
       <c r="I24" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">94 </t>
+          <t xml:space="preserve">84 </t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
@@ -33568,45 +33064,21 @@
           <t>OF</t>
         </is>
       </c>
-      <c r="R24" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="W24" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y24" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="4" t="n">
-        <v>79</v>
-      </c>
-      <c r="AA24" s="4" t="n">
-        <v>94</v>
-      </c>
+      <c r="R24" s="4" t="n"/>
+      <c r="S24" s="4" t="n"/>
+      <c r="T24" s="4" t="n"/>
+      <c r="U24" s="4" t="n"/>
+      <c r="V24" s="4" t="n"/>
+      <c r="W24" s="4" t="n"/>
+      <c r="X24" s="4" t="n"/>
+      <c r="Y24" s="4" t="n"/>
+      <c r="Z24" s="4" t="n"/>
+      <c r="AA24" s="4" t="n"/>
       <c r="AB24" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC24" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD24" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC24" s="4" t="n"/>
+      <c r="AD24" s="4" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
@@ -33662,45 +33134,21 @@
           <t>OF</t>
         </is>
       </c>
-      <c r="R25" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" s="4" t="n">
-        <v>36</v>
-      </c>
-      <c r="Y25" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z25" s="4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA25" s="4" t="n">
-        <v>80</v>
-      </c>
+      <c r="R25" s="4" t="n"/>
+      <c r="S25" s="4" t="n"/>
+      <c r="T25" s="4" t="n"/>
+      <c r="U25" s="4" t="n"/>
+      <c r="V25" s="4" t="n"/>
+      <c r="W25" s="4" t="n"/>
+      <c r="X25" s="4" t="n"/>
+      <c r="Y25" s="4" t="n"/>
+      <c r="Z25" s="4" t="n"/>
+      <c r="AA25" s="4" t="n"/>
       <c r="AB25" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC25" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD25" s="4" t="n">
-        <v>7</v>
-      </c>
+      <c r="AC25" s="4" t="n"/>
+      <c r="AD25" s="4" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
@@ -33731,7 +33179,7 @@
       </c>
       <c r="I26" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">94 </t>
+          <t xml:space="preserve">84 </t>
         </is>
       </c>
       <c r="J26" s="4" t="inlineStr">
@@ -33756,45 +33204,21 @@
           <t>OF</t>
         </is>
       </c>
-      <c r="R26" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y26" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z26" s="4" t="n">
-        <v>54</v>
-      </c>
-      <c r="AA26" s="4" t="n">
-        <v>63</v>
-      </c>
+      <c r="R26" s="4" t="n"/>
+      <c r="S26" s="4" t="n"/>
+      <c r="T26" s="4" t="n"/>
+      <c r="U26" s="4" t="n"/>
+      <c r="V26" s="4" t="n"/>
+      <c r="W26" s="4" t="n"/>
+      <c r="X26" s="4" t="n"/>
+      <c r="Y26" s="4" t="n"/>
+      <c r="Z26" s="4" t="n"/>
+      <c r="AA26" s="4" t="n"/>
       <c r="AB26" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC26" s="4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD26" s="4" t="n">
-        <v>5</v>
-      </c>
+      <c r="AC26" s="4" t="n"/>
+      <c r="AD26" s="4" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
@@ -33850,49 +33274,25 @@
           <t>OF</t>
         </is>
       </c>
-      <c r="R27" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y27" s="4" t="n">
-        <v>66</v>
-      </c>
-      <c r="Z27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="4" t="n">
-        <v>74</v>
-      </c>
+      <c r="R27" s="4" t="n"/>
+      <c r="S27" s="4" t="n"/>
+      <c r="T27" s="4" t="n"/>
+      <c r="U27" s="4" t="n"/>
+      <c r="V27" s="4" t="n"/>
+      <c r="W27" s="4" t="n"/>
+      <c r="X27" s="4" t="n"/>
+      <c r="Y27" s="4" t="n"/>
+      <c r="Z27" s="4" t="n"/>
+      <c r="AA27" s="4" t="n"/>
       <c r="AB27" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC27" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD27" s="4" t="n">
-        <v>6</v>
-      </c>
+      <c r="AC27" s="4" t="n"/>
+      <c r="AD27" s="4" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
@@ -33944,45 +33344,21 @@
           <t>OF</t>
         </is>
       </c>
-      <c r="R28" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="U28" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" s="4" t="n">
-        <v>59</v>
-      </c>
-      <c r="Y28" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z28" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA28" s="4" t="n">
-        <v>71</v>
-      </c>
+      <c r="R28" s="4" t="n"/>
+      <c r="S28" s="4" t="n"/>
+      <c r="T28" s="4" t="n"/>
+      <c r="U28" s="4" t="n"/>
+      <c r="V28" s="4" t="n"/>
+      <c r="W28" s="4" t="n"/>
+      <c r="X28" s="4" t="n"/>
+      <c r="Y28" s="4" t="n"/>
+      <c r="Z28" s="4" t="n"/>
+      <c r="AA28" s="4" t="n"/>
       <c r="AB28" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC28" s="4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD28" s="4" t="n">
-        <v>2</v>
-      </c>
+      <c r="AC28" s="4" t="n"/>
+      <c r="AD28" s="4" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
@@ -34038,49 +33414,25 @@
           <t>OF</t>
         </is>
       </c>
-      <c r="R29" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" s="4" t="n">
-        <v>44</v>
-      </c>
-      <c r="Y29" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z29" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA29" s="4" t="n">
-        <v>52</v>
-      </c>
+      <c r="R29" s="4" t="n"/>
+      <c r="S29" s="4" t="n"/>
+      <c r="T29" s="4" t="n"/>
+      <c r="U29" s="4" t="n"/>
+      <c r="V29" s="4" t="n"/>
+      <c r="W29" s="4" t="n"/>
+      <c r="X29" s="4" t="n"/>
+      <c r="Y29" s="4" t="n"/>
+      <c r="Z29" s="4" t="n"/>
+      <c r="AA29" s="4" t="n"/>
       <c r="AB29" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC29" s="4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AD29" s="4" t="n">
-        <v>14</v>
-      </c>
+      <c r="AC29" s="4" t="n"/>
+      <c r="AD29" s="4" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
@@ -34132,49 +33484,25 @@
           <t>OF</t>
         </is>
       </c>
-      <c r="R30" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y30" s="4" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z30" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA30" s="4" t="n">
-        <v>56</v>
-      </c>
+      <c r="R30" s="4" t="n"/>
+      <c r="S30" s="4" t="n"/>
+      <c r="T30" s="4" t="n"/>
+      <c r="U30" s="4" t="n"/>
+      <c r="V30" s="4" t="n"/>
+      <c r="W30" s="4" t="n"/>
+      <c r="X30" s="4" t="n"/>
+      <c r="Y30" s="4" t="n"/>
+      <c r="Z30" s="4" t="n"/>
+      <c r="AA30" s="4" t="n"/>
       <c r="AB30" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC30" s="4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD30" s="4" t="n">
-        <v>20</v>
-      </c>
+      <c r="AC30" s="4" t="n"/>
+      <c r="AD30" s="4" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
@@ -34226,49 +33554,25 @@
           <t>OF</t>
         </is>
       </c>
-      <c r="R31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y31" s="4" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z31" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA31" s="4" t="n">
-        <v>49</v>
-      </c>
+      <c r="R31" s="4" t="n"/>
+      <c r="S31" s="4" t="n"/>
+      <c r="T31" s="4" t="n"/>
+      <c r="U31" s="4" t="n"/>
+      <c r="V31" s="4" t="n"/>
+      <c r="W31" s="4" t="n"/>
+      <c r="X31" s="4" t="n"/>
+      <c r="Y31" s="4" t="n"/>
+      <c r="Z31" s="4" t="n"/>
+      <c r="AA31" s="4" t="n"/>
       <c r="AB31" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC31" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD31" s="4" t="n">
-        <v>6</v>
-      </c>
+      <c r="AC31" s="4" t="n"/>
+      <c r="AD31" s="4" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
@@ -34295,7 +33599,7 @@
       </c>
       <c r="I32" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">94 </t>
+          <t xml:space="preserve">84 </t>
         </is>
       </c>
       <c r="J32" s="4" t="inlineStr">
@@ -34320,49 +33624,25 @@
           <t>OF</t>
         </is>
       </c>
-      <c r="R32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="U32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA32" s="4" t="n">
-        <v>26</v>
-      </c>
+      <c r="R32" s="4" t="n"/>
+      <c r="S32" s="4" t="n"/>
+      <c r="T32" s="4" t="n"/>
+      <c r="U32" s="4" t="n"/>
+      <c r="V32" s="4" t="n"/>
+      <c r="W32" s="4" t="n"/>
+      <c r="X32" s="4" t="n"/>
+      <c r="Y32" s="4" t="n"/>
+      <c r="Z32" s="4" t="n"/>
+      <c r="AA32" s="4" t="n"/>
       <c r="AB32" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC32" s="4" t="n">
-        <v>33</v>
-      </c>
-      <c r="AD32" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC32" s="4" t="n"/>
+      <c r="AD32" s="4" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
@@ -34414,45 +33694,21 @@
           <t>OF</t>
         </is>
       </c>
-      <c r="R33" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="U33" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y33" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA33" s="4" t="n">
-        <v>20</v>
-      </c>
+      <c r="R33" s="4" t="n"/>
+      <c r="S33" s="4" t="n"/>
+      <c r="T33" s="4" t="n"/>
+      <c r="U33" s="4" t="n"/>
+      <c r="V33" s="4" t="n"/>
+      <c r="W33" s="4" t="n"/>
+      <c r="X33" s="4" t="n"/>
+      <c r="Y33" s="4" t="n"/>
+      <c r="Z33" s="4" t="n"/>
+      <c r="AA33" s="4" t="n"/>
       <c r="AB33" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC33" s="4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD33" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC33" s="4" t="n"/>
+      <c r="AD33" s="4" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
@@ -34508,49 +33764,25 @@
           <t>OF</t>
         </is>
       </c>
-      <c r="R34" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="U34" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y34" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z34" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA34" s="4" t="n">
-        <v>20</v>
-      </c>
+      <c r="R34" s="4" t="n"/>
+      <c r="S34" s="4" t="n"/>
+      <c r="T34" s="4" t="n"/>
+      <c r="U34" s="4" t="n"/>
+      <c r="V34" s="4" t="n"/>
+      <c r="W34" s="4" t="n"/>
+      <c r="X34" s="4" t="n"/>
+      <c r="Y34" s="4" t="n"/>
+      <c r="Z34" s="4" t="n"/>
+      <c r="AA34" s="4" t="n"/>
       <c r="AB34" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC34" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD34" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC34" s="4" t="n"/>
+      <c r="AD34" s="4" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
@@ -34602,45 +33834,21 @@
           <t>OF</t>
         </is>
       </c>
-      <c r="R35" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y35" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z35" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA35" s="4" t="n">
-        <v>13</v>
-      </c>
+      <c r="R35" s="4" t="n"/>
+      <c r="S35" s="4" t="n"/>
+      <c r="T35" s="4" t="n"/>
+      <c r="U35" s="4" t="n"/>
+      <c r="V35" s="4" t="n"/>
+      <c r="W35" s="4" t="n"/>
+      <c r="X35" s="4" t="n"/>
+      <c r="Y35" s="4" t="n"/>
+      <c r="Z35" s="4" t="n"/>
+      <c r="AA35" s="4" t="n"/>
       <c r="AB35" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC35" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD35" s="4" t="n">
-        <v>4</v>
-      </c>
+      <c r="AC35" s="4" t="n"/>
+      <c r="AD35" s="4" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
@@ -34712,45 +33920,21 @@
           <t>P</t>
         </is>
       </c>
-      <c r="R36" s="4" t="n">
-        <v>54</v>
-      </c>
-      <c r="S36" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="W36" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R36" s="4" t="n"/>
+      <c r="S36" s="4" t="n"/>
+      <c r="T36" s="4" t="n"/>
+      <c r="U36" s="4" t="n"/>
+      <c r="V36" s="4" t="n"/>
+      <c r="W36" s="4" t="n"/>
+      <c r="X36" s="4" t="n"/>
+      <c r="Y36" s="4" t="n"/>
+      <c r="Z36" s="4" t="n"/>
+      <c r="AA36" s="4" t="n"/>
       <c r="AB36" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD36" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC36" s="4" t="n"/>
+      <c r="AD36" s="4" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="n">
@@ -34822,49 +34006,25 @@
           <t>P</t>
         </is>
       </c>
-      <c r="R37" s="4" t="n">
-        <v>48</v>
-      </c>
-      <c r="S37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R37" s="4" t="n"/>
+      <c r="S37" s="4" t="n"/>
+      <c r="T37" s="4" t="n"/>
+      <c r="U37" s="4" t="n"/>
+      <c r="V37" s="4" t="n"/>
+      <c r="W37" s="4" t="n"/>
+      <c r="X37" s="4" t="n"/>
+      <c r="Y37" s="4" t="n"/>
+      <c r="Z37" s="4" t="n"/>
+      <c r="AA37" s="4" t="n"/>
       <c r="AB37" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC37" s="4" t="n"/>
+      <c r="AD37" s="4" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="n">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
@@ -34932,45 +34092,21 @@
           <t>P</t>
         </is>
       </c>
-      <c r="R38" s="4" t="n">
-        <v>42</v>
-      </c>
-      <c r="S38" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R38" s="4" t="n"/>
+      <c r="S38" s="4" t="n"/>
+      <c r="T38" s="4" t="n"/>
+      <c r="U38" s="4" t="n"/>
+      <c r="V38" s="4" t="n"/>
+      <c r="W38" s="4" t="n"/>
+      <c r="X38" s="4" t="n"/>
+      <c r="Y38" s="4" t="n"/>
+      <c r="Z38" s="4" t="n"/>
+      <c r="AA38" s="4" t="n"/>
       <c r="AB38" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC38" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC38" s="4" t="n"/>
+      <c r="AD38" s="4" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
@@ -35042,45 +34178,21 @@
           <t>P</t>
         </is>
       </c>
-      <c r="R39" s="4" t="n">
-        <v>39</v>
-      </c>
-      <c r="S39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R39" s="4" t="n"/>
+      <c r="S39" s="4" t="n"/>
+      <c r="T39" s="4" t="n"/>
+      <c r="U39" s="4" t="n"/>
+      <c r="V39" s="4" t="n"/>
+      <c r="W39" s="4" t="n"/>
+      <c r="X39" s="4" t="n"/>
+      <c r="Y39" s="4" t="n"/>
+      <c r="Z39" s="4" t="n"/>
+      <c r="AA39" s="4" t="n"/>
       <c r="AB39" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC39" s="4" t="n"/>
+      <c r="AD39" s="4" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="n">
@@ -35152,49 +34264,25 @@
           <t>P</t>
         </is>
       </c>
-      <c r="R40" s="4" t="n">
-        <v>38</v>
-      </c>
-      <c r="S40" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R40" s="4" t="n"/>
+      <c r="S40" s="4" t="n"/>
+      <c r="T40" s="4" t="n"/>
+      <c r="U40" s="4" t="n"/>
+      <c r="V40" s="4" t="n"/>
+      <c r="W40" s="4" t="n"/>
+      <c r="X40" s="4" t="n"/>
+      <c r="Y40" s="4" t="n"/>
+      <c r="Z40" s="4" t="n"/>
+      <c r="AA40" s="4" t="n"/>
       <c r="AB40" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC40" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC40" s="4" t="n"/>
+      <c r="AD40" s="4" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="n">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
@@ -35225,7 +34313,7 @@
       </c>
       <c r="I41" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">94 </t>
+          <t xml:space="preserve">84 </t>
         </is>
       </c>
       <c r="J41" s="4" t="inlineStr">
@@ -35262,45 +34350,21 @@
           <t>P</t>
         </is>
       </c>
-      <c r="R41" s="4" t="n">
-        <v>36</v>
-      </c>
-      <c r="S41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="U41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R41" s="4" t="n"/>
+      <c r="S41" s="4" t="n"/>
+      <c r="T41" s="4" t="n"/>
+      <c r="U41" s="4" t="n"/>
+      <c r="V41" s="4" t="n"/>
+      <c r="W41" s="4" t="n"/>
+      <c r="X41" s="4" t="n"/>
+      <c r="Y41" s="4" t="n"/>
+      <c r="Z41" s="4" t="n"/>
+      <c r="AA41" s="4" t="n"/>
       <c r="AB41" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC41" s="4" t="n"/>
+      <c r="AD41" s="4" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="4" t="n">
@@ -35372,49 +34436,25 @@
           <t>P</t>
         </is>
       </c>
-      <c r="R42" s="4" t="n">
-        <v>36</v>
-      </c>
-      <c r="S42" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R42" s="4" t="n"/>
+      <c r="S42" s="4" t="n"/>
+      <c r="T42" s="4" t="n"/>
+      <c r="U42" s="4" t="n"/>
+      <c r="V42" s="4" t="n"/>
+      <c r="W42" s="4" t="n"/>
+      <c r="X42" s="4" t="n"/>
+      <c r="Y42" s="4" t="n"/>
+      <c r="Z42" s="4" t="n"/>
+      <c r="AA42" s="4" t="n"/>
       <c r="AB42" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC42" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC42" s="4" t="n"/>
+      <c r="AD42" s="4" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="4" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
@@ -35482,49 +34522,25 @@
           <t>P</t>
         </is>
       </c>
-      <c r="R43" s="4" t="n">
-        <v>33</v>
-      </c>
-      <c r="S43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R43" s="4" t="n"/>
+      <c r="S43" s="4" t="n"/>
+      <c r="T43" s="4" t="n"/>
+      <c r="U43" s="4" t="n"/>
+      <c r="V43" s="4" t="n"/>
+      <c r="W43" s="4" t="n"/>
+      <c r="X43" s="4" t="n"/>
+      <c r="Y43" s="4" t="n"/>
+      <c r="Z43" s="4" t="n"/>
+      <c r="AA43" s="4" t="n"/>
       <c r="AB43" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC43" s="4" t="n"/>
+      <c r="AD43" s="4" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="4" t="n">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
@@ -35555,7 +34571,7 @@
       </c>
       <c r="I44" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">94 </t>
+          <t xml:space="preserve">84 </t>
         </is>
       </c>
       <c r="J44" s="4" t="inlineStr">
@@ -35592,49 +34608,25 @@
           <t>P</t>
         </is>
       </c>
-      <c r="R44" s="4" t="n">
-        <v>32</v>
-      </c>
-      <c r="S44" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R44" s="4" t="n"/>
+      <c r="S44" s="4" t="n"/>
+      <c r="T44" s="4" t="n"/>
+      <c r="U44" s="4" t="n"/>
+      <c r="V44" s="4" t="n"/>
+      <c r="W44" s="4" t="n"/>
+      <c r="X44" s="4" t="n"/>
+      <c r="Y44" s="4" t="n"/>
+      <c r="Z44" s="4" t="n"/>
+      <c r="AA44" s="4" t="n"/>
       <c r="AB44" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC44" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC44" s="4" t="n"/>
+      <c r="AD44" s="4" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="4" t="n">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
@@ -35665,7 +34657,7 @@
       </c>
       <c r="I45" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">85 </t>
+          <t xml:space="preserve">84 </t>
         </is>
       </c>
       <c r="J45" s="4" t="inlineStr">
@@ -35702,49 +34694,25 @@
           <t>P</t>
         </is>
       </c>
-      <c r="R45" s="4" t="n">
-        <v>32</v>
-      </c>
-      <c r="S45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R45" s="4" t="n"/>
+      <c r="S45" s="4" t="n"/>
+      <c r="T45" s="4" t="n"/>
+      <c r="U45" s="4" t="n"/>
+      <c r="V45" s="4" t="n"/>
+      <c r="W45" s="4" t="n"/>
+      <c r="X45" s="4" t="n"/>
+      <c r="Y45" s="4" t="n"/>
+      <c r="Z45" s="4" t="n"/>
+      <c r="AA45" s="4" t="n"/>
       <c r="AB45" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC45" s="4" t="n"/>
+      <c r="AD45" s="4" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="4" t="n">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
@@ -35812,49 +34780,25 @@
           <t>P</t>
         </is>
       </c>
-      <c r="R46" s="4" t="n">
-        <v>28</v>
-      </c>
-      <c r="S46" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R46" s="4" t="n"/>
+      <c r="S46" s="4" t="n"/>
+      <c r="T46" s="4" t="n"/>
+      <c r="U46" s="4" t="n"/>
+      <c r="V46" s="4" t="n"/>
+      <c r="W46" s="4" t="n"/>
+      <c r="X46" s="4" t="n"/>
+      <c r="Y46" s="4" t="n"/>
+      <c r="Z46" s="4" t="n"/>
+      <c r="AA46" s="4" t="n"/>
       <c r="AB46" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC46" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC46" s="4" t="n"/>
+      <c r="AD46" s="4" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="4" t="n">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
@@ -35885,7 +34829,7 @@
       </c>
       <c r="I47" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">94 </t>
+          <t xml:space="preserve">84 </t>
         </is>
       </c>
       <c r="J47" s="4" t="inlineStr">
@@ -35922,49 +34866,25 @@
           <t>P</t>
         </is>
       </c>
-      <c r="R47" s="4" t="n">
-        <v>26</v>
-      </c>
-      <c r="S47" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U47" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V47" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W47" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X47" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R47" s="4" t="n"/>
+      <c r="S47" s="4" t="n"/>
+      <c r="T47" s="4" t="n"/>
+      <c r="U47" s="4" t="n"/>
+      <c r="V47" s="4" t="n"/>
+      <c r="W47" s="4" t="n"/>
+      <c r="X47" s="4" t="n"/>
+      <c r="Y47" s="4" t="n"/>
+      <c r="Z47" s="4" t="n"/>
+      <c r="AA47" s="4" t="n"/>
       <c r="AB47" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC47" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD47" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC47" s="4" t="n"/>
+      <c r="AD47" s="4" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="4" t="n">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
@@ -35995,7 +34915,7 @@
       </c>
       <c r="I48" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">94 </t>
+          <t xml:space="preserve">84 </t>
         </is>
       </c>
       <c r="J48" s="4" t="inlineStr">
@@ -36032,49 +34952,25 @@
           <t>P</t>
         </is>
       </c>
-      <c r="R48" s="4" t="n">
-        <v>26</v>
-      </c>
-      <c r="S48" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T48" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U48" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V48" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W48" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X48" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R48" s="4" t="n"/>
+      <c r="S48" s="4" t="n"/>
+      <c r="T48" s="4" t="n"/>
+      <c r="U48" s="4" t="n"/>
+      <c r="V48" s="4" t="n"/>
+      <c r="W48" s="4" t="n"/>
+      <c r="X48" s="4" t="n"/>
+      <c r="Y48" s="4" t="n"/>
+      <c r="Z48" s="4" t="n"/>
+      <c r="AA48" s="4" t="n"/>
       <c r="AB48" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC48" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC48" s="4" t="n"/>
+      <c r="AD48" s="4" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="4" t="n">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
@@ -36142,45 +35038,21 @@
           <t>P</t>
         </is>
       </c>
-      <c r="R49" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="S49" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U49" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V49" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W49" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X49" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R49" s="4" t="n"/>
+      <c r="S49" s="4" t="n"/>
+      <c r="T49" s="4" t="n"/>
+      <c r="U49" s="4" t="n"/>
+      <c r="V49" s="4" t="n"/>
+      <c r="W49" s="4" t="n"/>
+      <c r="X49" s="4" t="n"/>
+      <c r="Y49" s="4" t="n"/>
+      <c r="Z49" s="4" t="n"/>
+      <c r="AA49" s="4" t="n"/>
       <c r="AB49" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC49" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC49" s="4" t="n"/>
+      <c r="AD49" s="4" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="4" t="n">
@@ -36252,49 +35124,25 @@
           <t>P</t>
         </is>
       </c>
-      <c r="R50" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="S50" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T50" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U50" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V50" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W50" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X50" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R50" s="4" t="n"/>
+      <c r="S50" s="4" t="n"/>
+      <c r="T50" s="4" t="n"/>
+      <c r="U50" s="4" t="n"/>
+      <c r="V50" s="4" t="n"/>
+      <c r="W50" s="4" t="n"/>
+      <c r="X50" s="4" t="n"/>
+      <c r="Y50" s="4" t="n"/>
+      <c r="Z50" s="4" t="n"/>
+      <c r="AA50" s="4" t="n"/>
       <c r="AB50" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC50" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC50" s="4" t="n"/>
+      <c r="AD50" s="4" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="4" t="n">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
@@ -36325,7 +35173,7 @@
       </c>
       <c r="I51" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">95 </t>
+          <t xml:space="preserve">84 </t>
         </is>
       </c>
       <c r="J51" s="4" t="inlineStr">
@@ -36362,45 +35210,21 @@
           <t>P</t>
         </is>
       </c>
-      <c r="R51" s="4" t="n">
-        <v>21</v>
-      </c>
-      <c r="S51" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T51" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U51" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V51" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W51" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X51" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R51" s="4" t="n"/>
+      <c r="S51" s="4" t="n"/>
+      <c r="T51" s="4" t="n"/>
+      <c r="U51" s="4" t="n"/>
+      <c r="V51" s="4" t="n"/>
+      <c r="W51" s="4" t="n"/>
+      <c r="X51" s="4" t="n"/>
+      <c r="Y51" s="4" t="n"/>
+      <c r="Z51" s="4" t="n"/>
+      <c r="AA51" s="4" t="n"/>
       <c r="AB51" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC51" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC51" s="4" t="n"/>
+      <c r="AD51" s="4" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="4" t="n">
@@ -36472,49 +35296,25 @@
           <t>P</t>
         </is>
       </c>
-      <c r="R52" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="S52" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T52" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U52" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V52" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W52" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X52" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R52" s="4" t="n"/>
+      <c r="S52" s="4" t="n"/>
+      <c r="T52" s="4" t="n"/>
+      <c r="U52" s="4" t="n"/>
+      <c r="V52" s="4" t="n"/>
+      <c r="W52" s="4" t="n"/>
+      <c r="X52" s="4" t="n"/>
+      <c r="Y52" s="4" t="n"/>
+      <c r="Z52" s="4" t="n"/>
+      <c r="AA52" s="4" t="n"/>
       <c r="AB52" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC52" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="4" t="n">
-        <v>10</v>
-      </c>
+      <c r="AC52" s="4" t="n"/>
+      <c r="AD52" s="4" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="4" t="n">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
@@ -36582,45 +35382,21 @@
           <t>P</t>
         </is>
       </c>
-      <c r="R53" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="S53" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T53" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U53" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V53" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W53" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X53" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R53" s="4" t="n"/>
+      <c r="S53" s="4" t="n"/>
+      <c r="T53" s="4" t="n"/>
+      <c r="U53" s="4" t="n"/>
+      <c r="V53" s="4" t="n"/>
+      <c r="W53" s="4" t="n"/>
+      <c r="X53" s="4" t="n"/>
+      <c r="Y53" s="4" t="n"/>
+      <c r="Z53" s="4" t="n"/>
+      <c r="AA53" s="4" t="n"/>
       <c r="AB53" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC53" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD53" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC53" s="4" t="n"/>
+      <c r="AD53" s="4" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="4" t="n">
@@ -36692,45 +35468,21 @@
           <t>P</t>
         </is>
       </c>
-      <c r="R54" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="S54" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T54" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U54" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V54" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W54" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X54" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R54" s="4" t="n"/>
+      <c r="S54" s="4" t="n"/>
+      <c r="T54" s="4" t="n"/>
+      <c r="U54" s="4" t="n"/>
+      <c r="V54" s="4" t="n"/>
+      <c r="W54" s="4" t="n"/>
+      <c r="X54" s="4" t="n"/>
+      <c r="Y54" s="4" t="n"/>
+      <c r="Z54" s="4" t="n"/>
+      <c r="AA54" s="4" t="n"/>
       <c r="AB54" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC54" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD54" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC54" s="4" t="n"/>
+      <c r="AD54" s="4" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="4" t="n">
@@ -36802,45 +35554,21 @@
           <t>P</t>
         </is>
       </c>
-      <c r="R55" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="S55" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T55" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U55" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V55" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W55" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X55" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="R55" s="4" t="n"/>
+      <c r="S55" s="4" t="n"/>
+      <c r="T55" s="4" t="n"/>
+      <c r="U55" s="4" t="n"/>
+      <c r="V55" s="4" t="n"/>
+      <c r="W55" s="4" t="n"/>
+      <c r="X55" s="4" t="n"/>
+      <c r="Y55" s="4" t="n"/>
+      <c r="Z55" s="4" t="n"/>
+      <c r="AA55" s="4" t="n"/>
       <c r="AB55" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC55" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD55" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC55" s="4" t="n"/>
+      <c r="AD55" s="4" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -37116,7 +35844,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>0</v>
@@ -37146,7 +35874,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD3" s="4" t="n">
         <v>0</v>
@@ -37158,7 +35886,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Ed Fitz Gerald</t>
+          <t>Ed FitzGerald</t>
         </is>
       </c>
       <c r="C4" s="4" t="n">
@@ -37342,7 +36070,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="n">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
@@ -37436,7 +36164,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="n">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
@@ -37530,7 +36258,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="n">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
@@ -37718,7 +36446,7 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="n">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
@@ -37812,7 +36540,7 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
@@ -37906,7 +36634,7 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="n">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
@@ -38094,7 +36822,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
@@ -38188,7 +36916,7 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
@@ -38282,7 +37010,7 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
@@ -38392,7 +37120,7 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
@@ -38486,7 +37214,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="n">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
@@ -38580,7 +37308,7 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
@@ -38674,7 +37402,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
@@ -38768,7 +37496,7 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
@@ -38889,7 +37617,7 @@
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">85 </t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
@@ -38936,22 +37664,22 @@
         <v>12</v>
       </c>
       <c r="Y22" s="4" t="n">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="Z22" s="4" t="n">
         <v>1</v>
       </c>
       <c r="AA22" s="4" t="n">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="AB22" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AC22" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD22" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -38983,7 +37711,7 @@
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">85 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
@@ -39030,13 +37758,13 @@
         <v>0</v>
       </c>
       <c r="Y23" s="4" t="n">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="Z23" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AA23" s="4" t="n">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="AB23" s="4" t="n">
         <v>0</v>
@@ -39045,12 +37773,12 @@
         <v>0</v>
       </c>
       <c r="AD23" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
@@ -39144,7 +37872,7 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
@@ -39238,7 +37966,7 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
@@ -39328,7 +38056,7 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
@@ -39418,7 +38146,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
@@ -39528,7 +38256,7 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
@@ -39638,7 +38366,7 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
@@ -39748,7 +38476,7 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
@@ -39968,7 +38696,7 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
@@ -40078,7 +38806,7 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
@@ -40188,7 +38916,7 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
@@ -40367,7 +39095,7 @@
         </is>
       </c>
       <c r="R36" s="4" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="S36" s="4" t="n">
         <v>0</v>
@@ -40408,7 +39136,7 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="n">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
@@ -40628,7 +39356,7 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
@@ -40848,7 +39576,7 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="n">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
@@ -41284,7 +40012,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="n">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
@@ -41472,7 +40200,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="n">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
@@ -41566,7 +40294,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="n">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
@@ -41660,7 +40388,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="n">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
@@ -42224,7 +40952,7 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
@@ -42318,7 +41046,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
@@ -42412,7 +41140,7 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
@@ -42506,7 +41234,7 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
@@ -42627,7 +41355,7 @@
       </c>
       <c r="I17" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J17" s="4" t="inlineStr">
@@ -42665,10 +41393,10 @@
         <v>1</v>
       </c>
       <c r="V17" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W17" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X17" s="4" t="n">
         <v>0</v>
@@ -42686,7 +41414,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="4" t="n">
         <v>0</v>
@@ -42788,7 +41516,7 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
@@ -42882,7 +41610,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
@@ -42976,7 +41704,7 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
@@ -43070,7 +41798,7 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
@@ -43164,7 +41892,7 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
@@ -43258,7 +41986,7 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
@@ -43352,7 +42080,7 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
@@ -43379,7 +42107,7 @@
       </c>
       <c r="I25" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
@@ -43411,34 +42139,34 @@
         <v>0</v>
       </c>
       <c r="T25" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y25" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="U25" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y25" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="4" t="n">
-        <v>2</v>
-      </c>
       <c r="AA25" s="4" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="AB25" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AC25" s="4" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="AD25" s="4" t="n">
         <v>0</v>
@@ -43446,7 +42174,7 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
@@ -43556,7 +42284,7 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
@@ -43666,7 +42394,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
@@ -43776,7 +42504,7 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
@@ -43886,7 +42614,7 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
@@ -44216,7 +42944,7 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
@@ -44546,7 +43274,7 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
@@ -44766,7 +43494,7 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="n">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
@@ -44876,7 +43604,7 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
@@ -45017,7 +43745,7 @@
       </c>
       <c r="I40" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J40" s="4" t="inlineStr">
@@ -45055,7 +43783,7 @@
         </is>
       </c>
       <c r="R40" s="4" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="S40" s="4" t="n">
         <v>0</v>
@@ -45091,7 +43819,7 @@
         <v>0</v>
       </c>
       <c r="AD40" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -45127,7 +43855,7 @@
       </c>
       <c r="I41" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">S84 </t>
+          <t xml:space="preserve">S95 </t>
         </is>
       </c>
       <c r="J41" s="4" t="inlineStr">
@@ -45165,7 +43893,7 @@
         </is>
       </c>
       <c r="R41" s="4" t="n">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="S41" s="4" t="n">
         <v>0</v>
@@ -45177,7 +43905,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41" s="4" t="n">
         <v>0</v>
@@ -45198,7 +43926,7 @@
         <v>0</v>
       </c>
       <c r="AC41" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD41" s="4" t="n">
         <v>0</v>
@@ -45206,7 +43934,7 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="n">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
@@ -45626,7 +44354,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="n">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
@@ -45814,7 +44542,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="n">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
@@ -46002,7 +44730,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="n">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
@@ -46096,7 +44824,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
@@ -46284,7 +45012,7 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
@@ -46378,7 +45106,7 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="n">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
@@ -46660,7 +45388,7 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
@@ -46754,7 +45482,7 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
@@ -46875,7 +45603,7 @@
       </c>
       <c r="I17" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">94 </t>
         </is>
       </c>
       <c r="J17" s="4" t="inlineStr">
@@ -46907,7 +45635,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" s="4" t="n">
         <v>0</v>
@@ -46919,7 +45647,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="4" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Y17" s="4" t="n">
         <v>2</v>
@@ -46928,13 +45656,13 @@
         <v>3</v>
       </c>
       <c r="AA17" s="4" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="AB17" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AC17" s="4" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="4" t="n">
         <v>0</v>
@@ -47032,7 +45760,7 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
@@ -47057,7 +45785,7 @@
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">94 </t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
@@ -47083,10 +45811,10 @@
         </is>
       </c>
       <c r="R19" s="4" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="S19" s="4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T19" s="4" t="n">
         <v>0</v>
@@ -47116,7 +45844,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD19" s="4" t="n">
         <v>0</v>
@@ -47124,7 +45852,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
@@ -47234,7 +45962,7 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
@@ -47344,7 +46072,7 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
@@ -47564,7 +46292,7 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
@@ -47674,7 +46402,7 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
@@ -47894,7 +46622,7 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
@@ -48004,7 +46732,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
@@ -48224,7 +46952,7 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
@@ -48334,7 +47062,7 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
@@ -48475,7 +47203,7 @@
       </c>
       <c r="I32" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J32" s="4" t="inlineStr">
@@ -48513,7 +47241,7 @@
         </is>
       </c>
       <c r="R32" s="4" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="S32" s="4" t="n">
         <v>0</v>
@@ -48554,7 +47282,7 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
@@ -48664,7 +47392,7 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
@@ -49178,7 +47906,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
@@ -49366,7 +48094,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="n">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
@@ -49648,7 +48376,7 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="n">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
@@ -49742,7 +48470,7 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
@@ -49957,7 +48685,7 @@
       </c>
       <c r="I13" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J13" s="4" t="inlineStr">
@@ -49992,13 +48720,13 @@
         <v>0</v>
       </c>
       <c r="U13" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" s="4" t="n">
         <v>2</v>
       </c>
       <c r="W13" s="4" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="X13" s="4" t="n">
         <v>0</v>
@@ -50024,7 +48752,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
@@ -50118,7 +48846,7 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
@@ -50306,7 +49034,7 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
@@ -50400,7 +49128,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="n">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
@@ -50494,7 +49222,7 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
@@ -50580,7 +49308,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AD19" s="4" t="n">
         <v>6</v>
@@ -50682,7 +49410,7 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
@@ -50776,7 +49504,7 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
@@ -50870,7 +49598,7 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
@@ -50960,7 +49688,7 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
@@ -51180,7 +49908,7 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
@@ -51400,7 +50128,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
@@ -51510,7 +50238,7 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
@@ -51730,7 +50458,7 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
@@ -51840,7 +50568,7 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
@@ -51950,7 +50678,7 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
@@ -52170,7 +50898,7 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
@@ -52500,7 +51228,7 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="n">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
@@ -52936,7 +51664,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="n">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
@@ -53030,7 +51758,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="n">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
@@ -53086,7 +51814,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>0</v>
@@ -53116,7 +51844,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="AD4" s="4" t="n">
         <v>0</v>
@@ -53180,7 +51908,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>0</v>
@@ -53210,7 +51938,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>0</v>
@@ -53406,7 +52134,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="n">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
@@ -53688,7 +52416,7 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
@@ -53782,7 +52510,7 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="n">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
@@ -53841,13 +52569,13 @@
         <v>0</v>
       </c>
       <c r="T12" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="U12" s="4" t="n">
         <v>0</v>
       </c>
       <c r="V12" s="4" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W12" s="4" t="n">
         <v>0</v>
@@ -53859,16 +52587,16 @@
         <v>0</v>
       </c>
       <c r="Z12" s="4" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AA12" s="4" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="AB12" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AC12" s="4" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AD12" s="4" t="n">
         <v>9</v>
@@ -53903,7 +52631,7 @@
       </c>
       <c r="I13" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J13" s="4" t="inlineStr">
@@ -53938,10 +52666,10 @@
         <v>0</v>
       </c>
       <c r="U13" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V13" s="4" t="n">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="W13" s="4" t="n">
         <v>0</v>
@@ -53962,15 +52690,15 @@
         <v>0</v>
       </c>
       <c r="AC13" s="4" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="AD13" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
@@ -54035,7 +52763,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="W14" s="4" t="n">
         <v>0</v>
@@ -54056,7 +52784,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD14" s="4" t="n">
         <v>0</v>
@@ -54064,7 +52792,7 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
@@ -54440,7 +53168,7 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
@@ -54534,7 +53262,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
@@ -54628,7 +53356,7 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
@@ -54796,13 +53524,13 @@
         <v>0</v>
       </c>
       <c r="Y22" s="4" t="n">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="Z22" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AA22" s="4" t="n">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="AB22" s="4" t="n">
         <v>0</v>
@@ -54816,7 +53544,7 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
@@ -54937,7 +53665,7 @@
       </c>
       <c r="I24" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
@@ -54981,22 +53709,22 @@
         <v>0</v>
       </c>
       <c r="X24" s="4" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="4" t="n">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="Z24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="AA24" s="4" t="n">
-        <v>74</v>
-      </c>
-      <c r="AB24" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="4" t="n">
-        <v>16</v>
       </c>
       <c r="AD24" s="4" t="n">
         <v>6</v>
@@ -55004,7 +53732,7 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
@@ -55098,7 +53826,7 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
@@ -55219,7 +53947,7 @@
       </c>
       <c r="I27" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J27" s="4" t="inlineStr">
@@ -55263,30 +53991,30 @@
         <v>0</v>
       </c>
       <c r="X27" s="4" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="Y27" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="Z27" s="4" t="n">
-        <v>7</v>
-      </c>
       <c r="AA27" s="4" t="n">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="AB27" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AC27" s="4" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="AD27" s="4" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
@@ -55380,7 +54108,7 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
@@ -55474,7 +54202,7 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
@@ -55501,7 +54229,7 @@
       </c>
       <c r="I30" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J30" s="4" t="inlineStr">
@@ -55545,30 +54273,30 @@
         <v>0</v>
       </c>
       <c r="X30" s="4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="4" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="4" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AC30" s="4" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="AD30" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
@@ -55768,7 +54496,7 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
@@ -55988,7 +54716,7 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
@@ -56098,7 +54826,7 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
@@ -56569,7 +55297,7 @@
       </c>
       <c r="I40" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J40" s="4" t="inlineStr">
@@ -56607,7 +55335,7 @@
         </is>
       </c>
       <c r="R40" s="4" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="S40" s="4" t="n">
         <v>0</v>
@@ -56648,7 +55376,7 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="n">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
@@ -56758,7 +55486,7 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="n">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
@@ -56899,7 +55627,7 @@
       </c>
       <c r="I43" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">S84 </t>
+          <t xml:space="preserve">S95 </t>
         </is>
       </c>
       <c r="J43" s="4" t="inlineStr">
@@ -56937,7 +55665,7 @@
         </is>
       </c>
       <c r="R43" s="4" t="n">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="S43" s="4" t="n">
         <v>0</v>
@@ -57009,7 +55737,7 @@
       </c>
       <c r="I44" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J44" s="4" t="inlineStr">
@@ -57047,7 +55775,7 @@
         </is>
       </c>
       <c r="R44" s="4" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="S44" s="4" t="n">
         <v>0</v>
@@ -57088,7 +55816,7 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="n">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
@@ -57229,7 +55957,7 @@
       </c>
       <c r="I46" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">S84 </t>
+          <t xml:space="preserve">S95 </t>
         </is>
       </c>
       <c r="J46" s="4" t="inlineStr">
@@ -57267,7 +55995,7 @@
         </is>
       </c>
       <c r="R46" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="S46" s="4" t="n">
         <v>0</v>
@@ -57580,7 +56308,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>0</v>
@@ -57610,7 +56338,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD3" s="4" t="n">
         <v>0</v>
@@ -57618,7 +56346,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="n">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
@@ -57900,7 +56628,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="n">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
@@ -57956,7 +56684,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="T7" s="4" t="n">
         <v>0</v>
@@ -57986,7 +56714,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AD7" s="4" t="n">
         <v>0</v>
@@ -57994,7 +56722,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="n">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
@@ -58088,7 +56816,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
@@ -58370,7 +57098,7 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="n">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
@@ -58526,10 +57254,10 @@
         <v>0</v>
       </c>
       <c r="U13" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V13" s="4" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="W13" s="4" t="n">
         <v>0</v>
@@ -58550,15 +57278,15 @@
         <v>0</v>
       </c>
       <c r="AC13" s="4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AD13" s="4" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
@@ -58652,7 +57380,7 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
@@ -58840,7 +57568,7 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
@@ -58934,7 +57662,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="n">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
@@ -59028,7 +57756,7 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
@@ -59099,16 +57827,16 @@
         <v>0</v>
       </c>
       <c r="X19" s="4" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Y19" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="4" t="n">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="AB19" s="4" t="n">
         <v>0</v>
@@ -59122,7 +57850,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
@@ -59149,7 +57877,7 @@
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">94 </t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
@@ -59193,22 +57921,22 @@
         <v>0</v>
       </c>
       <c r="X20" s="4" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Y20" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Z20" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA20" s="4" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AB20" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AC20" s="4" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AD20" s="4" t="n">
         <v>0</v>
@@ -59287,16 +58015,16 @@
         <v>0</v>
       </c>
       <c r="X21" s="4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y21" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="4" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AB21" s="4" t="n">
         <v>0</v>
@@ -59337,7 +58065,7 @@
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">94 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
@@ -59375,28 +58103,28 @@
         <v>0</v>
       </c>
       <c r="V22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="4" t="n">
         <v>2</v>
-      </c>
-      <c r="W22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="4" t="n">
-        <v>79</v>
-      </c>
-      <c r="AA22" s="4" t="n">
-        <v>94</v>
-      </c>
-      <c r="AB22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="4" t="n">
-        <v>11</v>
       </c>
       <c r="AD22" s="4" t="n">
         <v>0</v>
@@ -59404,7 +58132,7 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
@@ -59525,7 +58253,7 @@
       </c>
       <c r="I24" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">94 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
@@ -59572,22 +58300,22 @@
         <v>5</v>
       </c>
       <c r="Y24" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="4" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="4" t="n">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="AB24" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AC24" s="4" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="AD24" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -59845,7 +58573,7 @@
         </is>
       </c>
       <c r="R27" s="4" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S27" s="4" t="n">
         <v>0</v>
@@ -59886,7 +58614,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
@@ -60106,7 +58834,7 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
@@ -60216,7 +58944,7 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
@@ -60505,7 +59233,7 @@
         </is>
       </c>
       <c r="R33" s="4" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="S33" s="4" t="n">
         <v>0</v>
@@ -60546,7 +59274,7 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
@@ -60577,7 +59305,7 @@
       </c>
       <c r="I34" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">94 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J34" s="4" t="inlineStr">
@@ -60615,7 +59343,7 @@
         </is>
       </c>
       <c r="R34" s="4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S34" s="4" t="n">
         <v>0</v>
@@ -60766,7 +59494,7 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
@@ -60876,7 +59604,7 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="n">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
@@ -60945,7 +59673,7 @@
         </is>
       </c>
       <c r="R37" s="4" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="S37" s="4" t="n">
         <v>0</v>
@@ -60986,7 +59714,7 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="n">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
@@ -61096,7 +59824,7 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
@@ -61316,7 +60044,7 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
@@ -62050,7 +60778,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="n">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
@@ -62144,7 +60872,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="n">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
@@ -62238,7 +60966,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="n">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
@@ -62359,7 +61087,7 @@
       </c>
       <c r="I8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J8" s="4" t="inlineStr">
@@ -62391,7 +61119,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="U8" s="4" t="n">
         <v>0</v>
@@ -62418,7 +61146,7 @@
         <v>0</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="AD8" s="4" t="n">
         <v>0</v>
@@ -62614,7 +61342,7 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
@@ -62641,7 +61369,7 @@
       </c>
       <c r="I11" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">S84 </t>
+          <t xml:space="preserve">S95 </t>
         </is>
       </c>
       <c r="J11" s="4" t="inlineStr">
@@ -62676,7 +61404,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="4" t="n">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="V11" s="4" t="n">
         <v>2</v>
@@ -62700,15 +61428,15 @@
         <v>0</v>
       </c>
       <c r="AC11" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD11" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="n">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
@@ -62802,7 +61530,7 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="n">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
@@ -62896,7 +61624,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
@@ -62958,11 +61686,11 @@
         <v>0</v>
       </c>
       <c r="U14" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="V14" s="4" t="n">
-        <v>17</v>
-      </c>
       <c r="W14" s="4" t="n">
         <v>0</v>
       </c>
@@ -62982,7 +61710,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="4" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AD14" s="4" t="n">
         <v>0</v>
@@ -62990,7 +61718,7 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
@@ -63084,7 +61812,7 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
@@ -63366,7 +62094,7 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
@@ -63460,7 +62188,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
@@ -63648,7 +62376,7 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
@@ -63742,7 +62470,7 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
@@ -63769,7 +62497,7 @@
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">S84 </t>
+          <t xml:space="preserve">S85 </t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
@@ -63813,22 +62541,22 @@
         <v>0</v>
       </c>
       <c r="X23" s="4" t="n">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="Y23" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="4" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="AA23" s="4" t="n">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="AB23" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AC23" s="4" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AD23" s="4" t="n">
         <v>1</v>
@@ -63836,7 +62564,7 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
@@ -63863,7 +62591,7 @@
       </c>
       <c r="I24" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J24" s="4" t="inlineStr">
@@ -63901,28 +62629,28 @@
         <v>0</v>
       </c>
       <c r="V24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="W24" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" s="4" t="n">
-        <v>48</v>
-      </c>
       <c r="Y24" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="4" t="n">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="AA24" s="4" t="n">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="AB24" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AC24" s="4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD24" s="4" t="n">
         <v>5</v>
@@ -63957,7 +62685,7 @@
       </c>
       <c r="I25" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">S84 </t>
+          <t xml:space="preserve">S85 </t>
         </is>
       </c>
       <c r="J25" s="4" t="inlineStr">
@@ -64001,30 +62729,30 @@
         <v>0</v>
       </c>
       <c r="X25" s="4" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="Y25" s="4" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Z25" s="4" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="AA25" s="4" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="AB25" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AC25" s="4" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AD25" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
@@ -64051,7 +62779,7 @@
       </c>
       <c r="I26" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J26" s="4" t="inlineStr">
@@ -64095,30 +62823,30 @@
         <v>0</v>
       </c>
       <c r="X26" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y26" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z26" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA26" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="Y26" s="4" t="n">
-        <v>51</v>
-      </c>
-      <c r="Z26" s="4" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA26" s="4" t="n">
-        <v>103</v>
-      </c>
       <c r="AB26" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AC26" s="4" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="AD26" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
@@ -64212,7 +62940,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
@@ -64283,22 +63011,22 @@
         <v>0</v>
       </c>
       <c r="X28" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y28" s="4" t="n">
         <v>2</v>
       </c>
       <c r="Z28" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="4" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AB28" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AC28" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD28" s="4" t="n">
         <v>4</v>
@@ -64400,7 +63128,7 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
@@ -64427,7 +63155,7 @@
       </c>
       <c r="I30" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">85 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J30" s="4" t="inlineStr">
@@ -64459,34 +63187,34 @@
         <v>0</v>
       </c>
       <c r="T30" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="4" t="n">
         <v>3</v>
-      </c>
-      <c r="U30" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y30" s="4" t="n">
-        <v>91</v>
-      </c>
-      <c r="Z30" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA30" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB30" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="4" t="n">
-        <v>15</v>
       </c>
       <c r="AD30" s="4" t="n">
         <v>0</v>
@@ -64494,7 +63222,7 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
@@ -64604,7 +63332,7 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
@@ -64824,7 +63552,7 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="n">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
@@ -65044,7 +63772,7 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
@@ -65154,7 +63882,7 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="n">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
@@ -65374,7 +64102,7 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
@@ -65443,13 +64171,13 @@
         </is>
       </c>
       <c r="R39" s="4" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="S39" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T39" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39" s="4" t="n">
         <v>0</v>
@@ -65484,7 +64212,7 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="n">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
@@ -65594,7 +64322,7 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
@@ -65625,7 +64353,7 @@
       </c>
       <c r="I41" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J41" s="4" t="inlineStr">
@@ -65663,7 +64391,7 @@
         </is>
       </c>
       <c r="R41" s="4" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="S41" s="4" t="n">
         <v>0</v>
@@ -65955,7 +64683,7 @@
       </c>
       <c r="I44" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">S84 </t>
+          <t xml:space="preserve">S95 </t>
         </is>
       </c>
       <c r="J44" s="4" t="inlineStr">
@@ -65993,7 +64721,7 @@
         </is>
       </c>
       <c r="R44" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="S44" s="4" t="n">
         <v>0</v>
@@ -66034,7 +64762,7 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="n">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
@@ -66454,7 +65182,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="n">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
@@ -66548,7 +65276,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="n">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
@@ -66642,7 +65370,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="n">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
@@ -66669,7 +65397,7 @@
       </c>
       <c r="I6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J6" s="4" t="inlineStr">
@@ -66701,7 +65429,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="U6" s="4" t="n">
         <v>0</v>
@@ -66728,7 +65456,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AD6" s="4" t="n">
         <v>1</v>
@@ -66763,7 +65491,7 @@
       </c>
       <c r="I7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J7" s="4" t="inlineStr">
@@ -66795,7 +65523,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="U7" s="4" t="n">
         <v>0</v>
@@ -66822,7 +65550,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AD7" s="4" t="n">
         <v>0</v>
@@ -66830,7 +65558,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="n">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
@@ -66924,7 +65652,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
@@ -67112,7 +65840,7 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
@@ -67394,7 +66122,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
@@ -67488,7 +66216,7 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
@@ -67582,7 +66310,7 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
@@ -67676,7 +66404,7 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
@@ -67864,7 +66592,7 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
@@ -67958,7 +66686,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
@@ -68044,7 +66772,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="4" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AD20" s="4" t="n">
         <v>1</v>
@@ -68052,7 +66780,7 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
@@ -68146,7 +66874,7 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
@@ -68330,7 +67058,7 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
@@ -68530,7 +67258,7 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
@@ -69300,7 +68028,7 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
@@ -69479,7 +68207,7 @@
         </is>
       </c>
       <c r="R34" s="4" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="S34" s="4" t="n">
         <v>0</v>
@@ -69630,7 +68358,7 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
@@ -69661,7 +68389,7 @@
       </c>
       <c r="I36" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J36" s="4" t="inlineStr">
@@ -69699,7 +68427,7 @@
         </is>
       </c>
       <c r="R36" s="4" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="S36" s="4" t="n">
         <v>0</v>
@@ -69850,7 +68578,7 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="n">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
@@ -69960,7 +68688,7 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
@@ -70101,7 +68829,7 @@
       </c>
       <c r="I40" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J40" s="4" t="inlineStr">
@@ -70139,7 +68867,7 @@
         </is>
       </c>
       <c r="R40" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S40" s="4" t="n">
         <v>0</v>
@@ -70400,7 +69128,7 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="n">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
@@ -70820,7 +69548,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="n">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
@@ -70914,7 +69642,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="n">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
@@ -71008,7 +69736,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="n">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
@@ -71102,7 +69830,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="n">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
@@ -71196,7 +69924,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="n">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
@@ -71478,7 +70206,7 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
@@ -71572,7 +70300,7 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="n">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
@@ -71666,7 +70394,7 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="n">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
@@ -72042,7 +70770,7 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
@@ -72136,7 +70864,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="n">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
@@ -72324,7 +71052,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
@@ -72418,7 +71146,7 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
@@ -72504,7 +71232,7 @@
         <v>0</v>
       </c>
       <c r="AC21" s="4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD21" s="4" t="n">
         <v>0</v>
@@ -72512,7 +71240,7 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
@@ -72606,7 +71334,7 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
@@ -72692,7 +71420,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="4" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AD23" s="4" t="n">
         <v>0</v>
@@ -72700,7 +71428,7 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
@@ -72794,7 +71522,7 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
@@ -72904,7 +71632,7 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
@@ -72998,7 +71726,7 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
@@ -73025,7 +71753,7 @@
       </c>
       <c r="I27" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">84 </t>
+          <t xml:space="preserve">95 </t>
         </is>
       </c>
       <c r="J27" s="4" t="inlineStr">
@@ -73069,30 +71797,30 @@
         <v>0</v>
       </c>
       <c r="X27" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="4" t="n">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="Z27" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="4" t="n">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="AB27" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AC27" s="4" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
@@ -73626,7 +72354,7 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
@@ -73846,7 +72574,7 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
@@ -73915,7 +72643,7 @@
         </is>
       </c>
       <c r="R35" s="4" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="S35" s="4" t="n">
         <v>0</v>
@@ -73956,7 +72684,7 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="n">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
@@ -74066,7 +72794,7 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="n">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
@@ -74286,7 +73014,7 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
@@ -74355,7 +73083,7 @@
         </is>
       </c>
       <c r="R39" s="4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S39" s="4" t="n">
         <v>0</v>
@@ -74396,7 +73124,7 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="n">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
@@ -74836,7 +73564,7 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="n">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
@@ -74946,7 +73674,7 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="n">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
@@ -75276,7 +74004,7 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="n">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
@@ -75386,7 +74114,7 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="n">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
@@ -75826,7 +74554,7 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="n">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
@@ -75936,7 +74664,7 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="n">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
